--- a/top_spoken_languages.xlsx
+++ b/top_spoken_languages.xlsx
@@ -1,37 +1,169 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="27715"/>
   <workbookPr/>
-  <workbookProtection/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/JPCorb/PycharmProjects/wiki-lang-scrape/"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
-    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="38400" windowHeight="21600"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <definedNames/>
-  <calcPr calcId="124519" fullCalcOnLoad="1"/>
+  <calcPr calcId="0" concurrentCalc="0"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{79F54976-1DA5-4618-B147-4CDE4B953A38}">
+      <x14:workbookPr defaultImageDpi="32767"/>
+    </ext>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
+      <mx:ArchID Flags="2"/>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="39" uniqueCount="38">
+  <si>
+    <t>Language</t>
+  </si>
+  <si>
+    <t>Native speakers</t>
+  </si>
+  <si>
+    <t>Family</t>
+  </si>
+  <si>
+    <t>Chinese (Simplified)</t>
+  </si>
+  <si>
+    <t>Sino-Tibetan</t>
+  </si>
+  <si>
+    <t>Chinese (Traditional)</t>
+  </si>
+  <si>
+    <t>Spanish</t>
+  </si>
+  <si>
+    <t>Indo-European</t>
+  </si>
+  <si>
+    <t>Arabic</t>
+  </si>
+  <si>
+    <t>Afro-Asiatic</t>
+  </si>
+  <si>
+    <t>Japanese</t>
+  </si>
+  <si>
+    <t>Japonic</t>
+  </si>
+  <si>
+    <t>Telugu</t>
+  </si>
+  <si>
+    <t>Dravidian</t>
+  </si>
+  <si>
+    <t>Javanese</t>
+  </si>
+  <si>
+    <t>Austronesian</t>
+  </si>
+  <si>
+    <t>Korean</t>
+  </si>
+  <si>
+    <t>Koreanic</t>
+  </si>
+  <si>
+    <t>Vietnamese</t>
+  </si>
+  <si>
+    <t>Austroasiatic</t>
+  </si>
+  <si>
+    <t>Turkish</t>
+  </si>
+  <si>
+    <t>Turkic</t>
+  </si>
+  <si>
+    <t>Yoruba</t>
+  </si>
+  <si>
+    <t>Niger–Congo</t>
+  </si>
+  <si>
+    <t>Thai</t>
+  </si>
+  <si>
+    <t>Kra–Dai</t>
+  </si>
+  <si>
+    <t>Hungarian</t>
+  </si>
+  <si>
+    <t>Uralic</t>
+  </si>
+  <si>
+    <t>Haitian Creole</t>
+  </si>
+  <si>
+    <t>French Creole</t>
+  </si>
+  <si>
+    <t>Hmong</t>
+  </si>
+  <si>
+    <t>Hmong–Mien</t>
+  </si>
+  <si>
+    <t>Georgian</t>
+  </si>
+  <si>
+    <t>Kartvelian</t>
+  </si>
+  <si>
+    <t>Mongolian</t>
+  </si>
+  <si>
+    <t>Mongolic</t>
+  </si>
+  <si>
+    <t>Basque</t>
+  </si>
+  <si>
+    <t>Language isolate</t>
+  </si>
+</sst>
+</file>
+
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="0"/>
-  <fonts count="2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
-      <color theme="1"/>
-      <sz val="11"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b val="1"/>
+      <b/>
+      <sz val="11"/>
+      <name val="Calibri"/>
     </font>
   </fonts>
   <fills count="2">
     <fill>
-      <patternFill/>
+      <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
@@ -46,26 +178,40 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin"/>
-      <right style="thin"/>
-      <top style="thin"/>
-      <bottom style="thin"/>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
       <diagonal/>
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="2">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyAlignment="1" borderId="1" fillId="0" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle builtinId="0" hidden="0" name="Normal" xfId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium9"/>
+  <dxfs count="0"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
@@ -353,361 +499,284 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D19"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
+    <sheetView tabSelected="1" zoomScale="180" zoomScaleNormal="180" zoomScalePageLayoutView="180" workbookViewId="0">
+      <selection activeCell="F7" sqref="F7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="2" max="2" width="18.6640625" customWidth="1"/>
+    <col min="3" max="3" width="16.33203125" customWidth="1"/>
+    <col min="4" max="4" width="13.83203125" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1">
-      <c r="B1" s="1" t="inlineStr">
-        <is>
-          <t>Language</t>
-        </is>
-      </c>
-      <c r="C1" s="1" t="inlineStr">
-        <is>
-          <t>Native speakers</t>
-        </is>
-      </c>
-      <c r="D1" s="1" t="inlineStr">
-        <is>
-          <t>Family</t>
-        </is>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" s="1" t="n">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="B1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A2" s="1">
         <v>15</v>
       </c>
-      <c r="B2" t="inlineStr">
-        <is>
-          <t>Chinese (Simplified)</t>
-        </is>
-      </c>
-      <c r="C2" t="n">
+      <c r="B2" t="s">
+        <v>3</v>
+      </c>
+      <c r="C2">
         <v>1200000000</v>
       </c>
-      <c r="D2" t="inlineStr">
-        <is>
-          <t>Sino-Tibetan</t>
-        </is>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" s="1" t="n">
+      <c r="D2" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A3" s="1">
         <v>16</v>
       </c>
-      <c r="B3" t="inlineStr">
-        <is>
-          <t>Chinese (Traditional)</t>
-        </is>
-      </c>
-      <c r="C3" t="n">
+      <c r="B3" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3">
         <v>1200000000</v>
       </c>
-      <c r="D3" t="inlineStr">
-        <is>
-          <t>Sino-Tibetan</t>
-        </is>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" s="1" t="n">
+      <c r="D3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A4" s="1">
         <v>83</v>
       </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>Spanish</t>
-        </is>
-      </c>
-      <c r="C4" t="n">
+      <c r="B4" t="s">
+        <v>6</v>
+      </c>
+      <c r="C4">
         <v>483000000</v>
       </c>
-      <c r="D4" t="inlineStr">
-        <is>
-          <t>Indo-European</t>
-        </is>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" s="1" t="n">
+      <c r="D4" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A5" s="1">
         <v>3</v>
       </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>Arabic</t>
-        </is>
-      </c>
-      <c r="C5" t="n">
+      <c r="B5" t="s">
+        <v>8</v>
+      </c>
+      <c r="C5">
         <v>310000000</v>
       </c>
-      <c r="D5" t="inlineStr">
-        <is>
-          <t>Afro-Asiatic</t>
-        </is>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" s="1" t="n">
+      <c r="D5" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A6" s="1">
         <v>44</v>
       </c>
-      <c r="B6" t="inlineStr">
-        <is>
-          <t>Japanese</t>
-        </is>
-      </c>
-      <c r="C6" t="n">
+      <c r="B6" t="s">
+        <v>10</v>
+      </c>
+      <c r="C6">
         <v>125000000</v>
       </c>
-      <c r="D6" t="inlineStr">
-        <is>
-          <t>Japonic</t>
-        </is>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" s="1" t="n">
+      <c r="D6" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A7" s="1">
         <v>89</v>
       </c>
-      <c r="B7" t="inlineStr">
-        <is>
-          <t>Telugu</t>
-        </is>
-      </c>
-      <c r="C7" t="n">
+      <c r="B7" t="s">
+        <v>12</v>
+      </c>
+      <c r="C7">
         <v>82000000</v>
       </c>
-      <c r="D7" t="inlineStr">
-        <is>
-          <t>Dravidian</t>
-        </is>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" s="1" t="n">
+      <c r="D7" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A8" s="1">
         <v>45</v>
       </c>
-      <c r="B8" t="inlineStr">
-        <is>
-          <t>Javanese</t>
-        </is>
-      </c>
-      <c r="C8" t="n">
+      <c r="B8" t="s">
+        <v>14</v>
+      </c>
+      <c r="C8">
         <v>82000000</v>
       </c>
-      <c r="D8" t="inlineStr">
-        <is>
-          <t>Austronesian</t>
-        </is>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" s="1" t="n">
+      <c r="D8" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A9" s="1">
         <v>49</v>
       </c>
-      <c r="B9" t="inlineStr">
-        <is>
-          <t>Korean</t>
-        </is>
-      </c>
-      <c r="C9" t="n">
+      <c r="B9" t="s">
+        <v>16</v>
+      </c>
+      <c r="C9">
         <v>77200000</v>
       </c>
-      <c r="D9" t="inlineStr">
-        <is>
-          <t>Koreanic</t>
-        </is>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" s="1" t="n">
+      <c r="D9" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A10" s="1">
         <v>95</v>
       </c>
-      <c r="B10" t="inlineStr">
-        <is>
-          <t>Vietnamese</t>
-        </is>
-      </c>
-      <c r="C10" t="n">
+      <c r="B10" t="s">
+        <v>18</v>
+      </c>
+      <c r="C10">
         <v>76000000</v>
       </c>
-      <c r="D10" t="inlineStr">
-        <is>
-          <t>Austroasiatic</t>
-        </is>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" s="1" t="n">
+      <c r="D10" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A11" s="1">
         <v>91</v>
       </c>
-      <c r="B11" t="inlineStr">
-        <is>
-          <t>Turkish</t>
-        </is>
-      </c>
-      <c r="C11" t="n">
+      <c r="B11" t="s">
+        <v>20</v>
+      </c>
+      <c r="C11">
         <v>75700000</v>
       </c>
-      <c r="D11" t="inlineStr">
-        <is>
-          <t>Turkic</t>
-        </is>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" s="1" t="n">
+      <c r="D11" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A12" s="1">
         <v>100</v>
       </c>
-      <c r="B12" t="inlineStr">
-        <is>
-          <t>Yoruba</t>
-        </is>
-      </c>
-      <c r="C12" t="n">
+      <c r="B12" t="s">
+        <v>22</v>
+      </c>
+      <c r="C12">
         <v>40000000</v>
       </c>
-      <c r="D12" t="inlineStr">
-        <is>
-          <t>Niger–Congo</t>
-        </is>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" s="1" t="n">
+      <c r="D12" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A13" s="1">
         <v>90</v>
       </c>
-      <c r="B13" t="inlineStr">
-        <is>
-          <t>Thai</t>
-        </is>
-      </c>
-      <c r="C13" t="n">
+      <c r="B13" t="s">
+        <v>24</v>
+      </c>
+      <c r="C13">
         <v>36000000</v>
       </c>
-      <c r="D13" t="inlineStr">
-        <is>
-          <t>Kra–Dai</t>
-        </is>
-      </c>
-    </row>
-    <row r="14">
-      <c r="A14" s="1" t="n">
+      <c r="D13" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A14" s="1">
         <v>38</v>
       </c>
-      <c r="B14" t="inlineStr">
-        <is>
-          <t>Hungarian</t>
-        </is>
-      </c>
-      <c r="C14" t="n">
+      <c r="B14" t="s">
+        <v>26</v>
+      </c>
+      <c r="C14">
         <v>13000000</v>
       </c>
-      <c r="D14" t="inlineStr">
-        <is>
-          <t>Uralic</t>
-        </is>
-      </c>
-    </row>
-    <row r="15">
-      <c r="A15" s="1" t="n">
+      <c r="D14" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A15" s="1">
         <v>32</v>
       </c>
-      <c r="B15" t="inlineStr">
-        <is>
-          <t>Haitian Creole</t>
-        </is>
-      </c>
-      <c r="C15" t="n">
+      <c r="B15" t="s">
+        <v>28</v>
+      </c>
+      <c r="C15">
         <v>9600000</v>
       </c>
-      <c r="D15" t="inlineStr">
-        <is>
-          <t>French Creole</t>
-        </is>
-      </c>
-    </row>
-    <row r="16">
-      <c r="A16" s="1" t="n">
+      <c r="D15" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A16" s="1">
         <v>37</v>
       </c>
-      <c r="B16" t="inlineStr">
-        <is>
-          <t>Hmong</t>
-        </is>
-      </c>
-      <c r="C16" t="n">
+      <c r="B16" t="s">
+        <v>30</v>
+      </c>
+      <c r="C16">
         <v>3700000</v>
       </c>
-      <c r="D16" t="inlineStr">
-        <is>
-          <t>Hmong–Mien</t>
-        </is>
-      </c>
-    </row>
-    <row r="17">
-      <c r="A17" s="1" t="n">
+      <c r="D16" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A17" s="1">
         <v>28</v>
       </c>
-      <c r="B17" t="inlineStr">
-        <is>
-          <t>Georgian</t>
-        </is>
-      </c>
-      <c r="C17" t="n">
+      <c r="B17" t="s">
+        <v>32</v>
+      </c>
+      <c r="C17">
         <v>3700000</v>
       </c>
-      <c r="D17" t="inlineStr">
-        <is>
-          <t>Kartvelian</t>
-        </is>
-      </c>
-    </row>
-    <row r="18">
-      <c r="A18" s="1" t="n">
+      <c r="D17" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A18" s="1">
         <v>63</v>
       </c>
-      <c r="B18" t="inlineStr">
-        <is>
-          <t>Mongolian</t>
-        </is>
-      </c>
-      <c r="C18" t="n">
+      <c r="B18" t="s">
+        <v>34</v>
+      </c>
+      <c r="C18">
         <v>3600000</v>
       </c>
-      <c r="D18" t="inlineStr">
-        <is>
-          <t>Mongolic</t>
-        </is>
-      </c>
-    </row>
-    <row r="19">
-      <c r="A19" s="1" t="n">
+      <c r="D18" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A19" s="1">
         <v>6</v>
       </c>
-      <c r="B19" t="inlineStr">
-        <is>
-          <t>Basque</t>
-        </is>
-      </c>
-      <c r="C19" t="n">
+      <c r="B19" t="s">
+        <v>36</v>
+      </c>
+      <c r="C19">
         <v>750000</v>
       </c>
-      <c r="D19" t="inlineStr">
-        <is>
-          <t>Language isolate</t>
-        </is>
+      <c r="D19" t="s">
+        <v>37</v>
       </c>
     </row>
   </sheetData>
-  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>